--- a/DB/Basicinfo/States-2023-08-18.xlsx
+++ b/DB/Basicinfo/States-2023-08-18.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Django_Proj\src\DB\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AIS-Django\DB\Basicinfo\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25AEE348-6545-45CA-B32C-8CA079A91E0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="0" showVerticalScroll="0" showSheetTabs="0" xWindow="0" yWindow="0" windowWidth="20460" windowHeight="7680"/>
+    <workbookView showHorizontalScroll="0" showVerticalScroll="0" showSheetTabs="0" xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tablib Dataset" sheetId="1" r:id="rId1"/>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="327">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="364">
   <si>
     <t>id</t>
   </si>
@@ -1003,17 +1004,128 @@
   </si>
   <si>
     <t>name_ar</t>
+  </si>
+  <si>
+    <t>القاهرة</t>
+  </si>
+  <si>
+    <t>الجيزة</t>
+  </si>
+  <si>
+    <t>بنها</t>
+  </si>
+  <si>
+    <t>القليوبية</t>
+  </si>
+  <si>
+    <t>الإسكندرية</t>
+  </si>
+  <si>
+    <t>البحيرة</t>
+  </si>
+  <si>
+    <t>مطروح</t>
+  </si>
+  <si>
+    <t>دمنهور</t>
+  </si>
+  <si>
+    <t>مرسى مطروح</t>
+  </si>
+  <si>
+    <t>الدقهلية</t>
+  </si>
+  <si>
+    <t>دمياط</t>
+  </si>
+  <si>
+    <t>الغربية</t>
+  </si>
+  <si>
+    <t>كفر الشيخ</t>
+  </si>
+  <si>
+    <t>المنوفية</t>
+  </si>
+  <si>
+    <t>المنصورة</t>
+  </si>
+  <si>
+    <t>طنطا</t>
+  </si>
+  <si>
+    <t>شبين الكوم</t>
+  </si>
+  <si>
+    <t>الإسماعيلية</t>
+  </si>
+  <si>
+    <t>بورسعيد</t>
+  </si>
+  <si>
+    <t>السويس</t>
+  </si>
+  <si>
+    <t>الشرقية</t>
+  </si>
+  <si>
+    <t>شمال سينا</t>
+  </si>
+  <si>
+    <t>جنوب سينا</t>
+  </si>
+  <si>
+    <t>الطور</t>
+  </si>
+  <si>
+    <t>العريش</t>
+  </si>
+  <si>
+    <t>الزقازيق</t>
+  </si>
+  <si>
+    <t>بني سويف</t>
+  </si>
+  <si>
+    <t>الفيوم</t>
+  </si>
+  <si>
+    <t>المنيا</t>
+  </si>
+  <si>
+    <t>أسيوط</t>
+  </si>
+  <si>
+    <t>الوادي الجديد</t>
+  </si>
+  <si>
+    <t>الخارجة</t>
+  </si>
+  <si>
+    <t>أسوان</t>
+  </si>
+  <si>
+    <t>الأقصر</t>
+  </si>
+  <si>
+    <t>سوهاج</t>
+  </si>
+  <si>
+    <t>قنا</t>
+  </si>
+  <si>
+    <t>الغردقة</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1048,6 +1160,12 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF202122"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -1088,10 +1206,10 @@
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1106,12 +1224,22 @@
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal_Tablib Dataset" xfId="2"/>
+    <cellStyle name="Normal_Tablib Dataset" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1410,12 +1538,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F175"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F202"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
+      <pane ySplit="1" topLeftCell="A195" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D200" sqref="D200"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1424,7 +1552,7 @@
     <col min="2" max="2" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" style="9" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1459,7 +1587,7 @@
         <v>307</v>
       </c>
       <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
+      <c r="E2" s="8"/>
       <c r="F2" s="1"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -1473,7 +1601,7 @@
         <v>309</v>
       </c>
       <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
+      <c r="E3" s="8"/>
       <c r="F3" s="1"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -1487,7 +1615,7 @@
         <v>310</v>
       </c>
       <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
+      <c r="E4" s="8"/>
       <c r="F4" s="1"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -1501,7 +1629,7 @@
         <v>311</v>
       </c>
       <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
+      <c r="E5" s="8"/>
       <c r="F5" s="1"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -1515,7 +1643,7 @@
         <v>308</v>
       </c>
       <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
+      <c r="E6" s="8"/>
       <c r="F6" s="1"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -1529,7 +1657,7 @@
         <v>312</v>
       </c>
       <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
+      <c r="E7" s="8"/>
       <c r="F7" s="1"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -1543,7 +1671,7 @@
         <v>313</v>
       </c>
       <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
+      <c r="E8" s="8"/>
       <c r="F8" s="1"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -1557,7 +1685,7 @@
         <v>314</v>
       </c>
       <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
+      <c r="E9" s="8"/>
       <c r="F9" s="1"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -1571,7 +1699,7 @@
         <v>315</v>
       </c>
       <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
+      <c r="E10" s="8"/>
       <c r="F10" s="1"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -1585,7 +1713,7 @@
         <v>316</v>
       </c>
       <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
+      <c r="E11" s="8"/>
       <c r="F11" s="1"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -1599,7 +1727,7 @@
         <v>317</v>
       </c>
       <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
+      <c r="E12" s="8"/>
       <c r="F12" s="1"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -1613,7 +1741,7 @@
         <v>318</v>
       </c>
       <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
+      <c r="E13" s="8"/>
       <c r="F13" s="1"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -1627,7 +1755,7 @@
         <v>319</v>
       </c>
       <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
+      <c r="E14" s="8"/>
       <c r="F14" s="1"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -1641,7 +1769,7 @@
         <v>320</v>
       </c>
       <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
+      <c r="E15" s="8"/>
       <c r="F15" s="1"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -1655,7 +1783,7 @@
         <v>321</v>
       </c>
       <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
+      <c r="E16" s="8"/>
       <c r="F16" s="1"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -1669,7 +1797,7 @@
         <v>322</v>
       </c>
       <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
+      <c r="E17" s="8"/>
       <c r="F17" s="1"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -1683,7 +1811,7 @@
         <v>323</v>
       </c>
       <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
+      <c r="E18" s="8"/>
       <c r="F18" s="1"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -1697,7 +1825,7 @@
         <v>318</v>
       </c>
       <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
+      <c r="E19" s="8"/>
       <c r="F19" s="1"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -4500,9 +4628,468 @@
         <v>21612</v>
       </c>
     </row>
+    <row r="176" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A176" s="2">
+        <v>175</v>
+      </c>
+      <c r="B176" s="3">
+        <v>19</v>
+      </c>
+      <c r="C176" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="E176" s="9" t="s">
+        <v>327</v>
+      </c>
+      <c r="F176" s="11">
+        <v>9278441</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A177" s="2">
+        <v>176</v>
+      </c>
+      <c r="B177" s="3">
+        <v>19</v>
+      </c>
+      <c r="C177" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="E177" s="9" t="s">
+        <v>328</v>
+      </c>
+      <c r="F177" s="10">
+        <v>7585115</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A178" s="2">
+        <v>177</v>
+      </c>
+      <c r="B178" s="3">
+        <v>19</v>
+      </c>
+      <c r="C178" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="E178" s="9" t="s">
+        <v>329</v>
+      </c>
+      <c r="F178" s="11">
+        <v>5105972</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A179" s="2">
+        <v>178</v>
+      </c>
+      <c r="B179" s="3">
+        <v>20</v>
+      </c>
+      <c r="C179" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="E179" s="9" t="s">
+        <v>331</v>
+      </c>
+      <c r="F179" s="11">
+        <v>4812186</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A180" s="2">
+        <v>179</v>
+      </c>
+      <c r="B180" s="3">
+        <v>20</v>
+      </c>
+      <c r="C180" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="E180" s="9" t="s">
+        <v>334</v>
+      </c>
+      <c r="F180" s="11">
+        <v>5804262</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A181" s="2">
+        <v>180</v>
+      </c>
+      <c r="B181" s="3">
+        <v>20</v>
+      </c>
+      <c r="C181" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="E181" s="9" t="s">
+        <v>335</v>
+      </c>
+      <c r="F181" s="11">
+        <v>447846</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A182" s="2">
+        <v>181</v>
+      </c>
+      <c r="B182" s="3">
+        <v>21</v>
+      </c>
+      <c r="C182" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="E182" s="9" t="s">
+        <v>341</v>
+      </c>
+      <c r="F182" s="11">
+        <v>5949001</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A183" s="2">
+        <v>182</v>
+      </c>
+      <c r="B183" s="3">
+        <v>21</v>
+      </c>
+      <c r="C183" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="E183" s="9" t="s">
+        <v>337</v>
+      </c>
+      <c r="F183" s="11">
+        <v>1330843</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A184" s="2">
+        <v>183</v>
+      </c>
+      <c r="B184" s="3">
+        <v>21</v>
+      </c>
+      <c r="C184" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="E184" s="9" t="s">
+        <v>342</v>
+      </c>
+      <c r="F184" s="11">
+        <v>4751865</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A185" s="2">
+        <v>184</v>
+      </c>
+      <c r="B185" s="3">
+        <v>21</v>
+      </c>
+      <c r="C185" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="E185" s="9" t="s">
+        <v>339</v>
+      </c>
+      <c r="F185" s="11">
+        <v>3172753</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A186" s="2">
+        <v>185</v>
+      </c>
+      <c r="B186" s="3">
+        <v>21</v>
+      </c>
+      <c r="C186" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="E186" s="9" t="s">
+        <v>343</v>
+      </c>
+      <c r="F186" s="11">
+        <v>3941293</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A187" s="2">
+        <v>186</v>
+      </c>
+      <c r="B187" s="3">
+        <v>22</v>
+      </c>
+      <c r="C187" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="E187" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="F187" s="11">
+        <v>1178641</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A188" s="2">
+        <v>187</v>
+      </c>
+      <c r="B188" s="3">
+        <v>22</v>
+      </c>
+      <c r="C188" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="E188" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="F188" s="11">
+        <v>666599</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A189" s="2">
+        <v>188</v>
+      </c>
+      <c r="B189" s="3">
+        <v>22</v>
+      </c>
+      <c r="C189" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="E189" s="9" t="s">
+        <v>346</v>
+      </c>
+      <c r="F189" s="11">
+        <v>622859</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A190" s="2">
+        <v>189</v>
+      </c>
+      <c r="B190" s="3">
+        <v>22</v>
+      </c>
+      <c r="C190" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="E190" s="9" t="s">
+        <v>352</v>
+      </c>
+      <c r="F190" s="11">
+        <v>6485412</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A191" s="2">
+        <v>190</v>
+      </c>
+      <c r="B191" s="3">
+        <v>22</v>
+      </c>
+      <c r="C191" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="E191" s="9" t="s">
+        <v>351</v>
+      </c>
+      <c r="F191" s="11">
+        <v>434781</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A192" s="2">
+        <v>191</v>
+      </c>
+      <c r="B192" s="3">
+        <v>22</v>
+      </c>
+      <c r="C192" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="E192" s="9" t="s">
+        <v>350</v>
+      </c>
+      <c r="F192" s="11">
+        <v>167426</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A193" s="2">
+        <v>192</v>
+      </c>
+      <c r="B193" s="3">
+        <v>23</v>
+      </c>
+      <c r="C193" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="E193" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="F193" s="11">
+        <v>2856812</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A194" s="2">
+        <v>193</v>
+      </c>
+      <c r="B194" s="3">
+        <v>23</v>
+      </c>
+      <c r="C194" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="E194" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="F194" s="11">
+        <v>3170150</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A195" s="2">
+        <v>194</v>
+      </c>
+      <c r="B195" s="3">
+        <v>23</v>
+      </c>
+      <c r="C195" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="E195" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="F195" s="11">
+        <v>5156702</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A196" s="2">
+        <v>195</v>
+      </c>
+      <c r="B196" s="3">
+        <v>24</v>
+      </c>
+      <c r="C196" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="E196" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="F196" s="11">
+        <v>4245215</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A197" s="2">
+        <v>196</v>
+      </c>
+      <c r="B197" s="3">
+        <v>24</v>
+      </c>
+      <c r="C197" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="E197" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="F197" s="11">
+        <v>225416</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A198" s="2">
+        <v>197</v>
+      </c>
+      <c r="B198" s="3">
+        <v>25</v>
+      </c>
+      <c r="C198" s="3" t="s">
+        <v>359</v>
+      </c>
+      <c r="E198" s="3" t="s">
+        <v>359</v>
+      </c>
+      <c r="F198" s="11">
+        <v>1431488</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A199" s="2">
+        <v>198</v>
+      </c>
+      <c r="B199" s="3">
+        <v>25</v>
+      </c>
+      <c r="C199" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="E199" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="F199" s="11">
+        <v>1147058</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A200" s="2">
+        <v>199</v>
+      </c>
+      <c r="B200" s="3">
+        <v>25</v>
+      </c>
+      <c r="C200" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="E200" s="3" t="s">
+        <v>363</v>
+      </c>
+      <c r="F200" s="11">
+        <v>345775</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A201" s="2">
+        <v>200</v>
+      </c>
+      <c r="B201" s="3">
+        <v>25</v>
+      </c>
+      <c r="C201" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="E201" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="F201" s="11">
+        <v>4603861</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A202" s="2">
+        <v>201</v>
+      </c>
+      <c r="B202" s="3">
+        <v>25</v>
+      </c>
+      <c r="C202" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="E202" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="F202" s="11">
+        <v>3045504</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:F1">
-    <sortState ref="A2:E157">
+  <autoFilter ref="A1:F1" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E157">
       <sortCondition ref="B1"/>
     </sortState>
   </autoFilter>

--- a/DB/Basicinfo/States-2023-08-18.xlsx
+++ b/DB/Basicinfo/States-2023-08-18.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AIS-Django\DB\Basicinfo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25AEE348-6545-45CA-B32C-8CA079A91E0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C3F8CF8-839C-42F6-B64F-5A6CCAFAF4FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView showHorizontalScroll="0" showVerticalScroll="0" showSheetTabs="0" xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="364">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="427">
   <si>
     <t>id</t>
   </si>
@@ -1115,6 +1115,195 @@
   </si>
   <si>
     <t>الغردقة</t>
+  </si>
+  <si>
+    <t>مدحاء</t>
+  </si>
+  <si>
+    <t>دبا</t>
+  </si>
+  <si>
+    <t>خصب</t>
+  </si>
+  <si>
+    <t>بخا</t>
+  </si>
+  <si>
+    <t>مسقط</t>
+  </si>
+  <si>
+    <t>مطرح</t>
+  </si>
+  <si>
+    <t>بوشر</t>
+  </si>
+  <si>
+    <t>السيب</t>
+  </si>
+  <si>
+    <t>العامرات</t>
+  </si>
+  <si>
+    <t>قريات</t>
+  </si>
+  <si>
+    <t>شليم وجزر الحلانيات</t>
+  </si>
+  <si>
+    <t>سدح</t>
+  </si>
+  <si>
+    <t>مرباط</t>
+  </si>
+  <si>
+    <t>طاقة</t>
+  </si>
+  <si>
+    <t>صلالة</t>
+  </si>
+  <si>
+    <t>رخيوت</t>
+  </si>
+  <si>
+    <t>ضلكوت</t>
+  </si>
+  <si>
+    <t>ثمريت</t>
+  </si>
+  <si>
+    <t>المزيونة</t>
+  </si>
+  <si>
+    <t>مقشن</t>
+  </si>
+  <si>
+    <t>وادي بني خالد</t>
+  </si>
+  <si>
+    <t>دماء والطائيين</t>
+  </si>
+  <si>
+    <t>القابل</t>
+  </si>
+  <si>
+    <t>إبرا</t>
+  </si>
+  <si>
+    <t>المضيبي</t>
+  </si>
+  <si>
+    <t>بدية</t>
+  </si>
+  <si>
+    <t>سناو</t>
+  </si>
+  <si>
+    <t>الخابورة</t>
+  </si>
+  <si>
+    <t>صحم</t>
+  </si>
+  <si>
+    <t>صحار</t>
+  </si>
+  <si>
+    <t>لوى</t>
+  </si>
+  <si>
+    <t>شناص</t>
+  </si>
+  <si>
+    <t>السويق</t>
+  </si>
+  <si>
+    <t>صور</t>
+  </si>
+  <si>
+    <t>جعلان بني بوحسن</t>
+  </si>
+  <si>
+    <t>جعلان بني بوعلي</t>
+  </si>
+  <si>
+    <t>الكامل والوافي</t>
+  </si>
+  <si>
+    <t>مصيرة</t>
+  </si>
+  <si>
+    <t>بركاء</t>
+  </si>
+  <si>
+    <t>المصنعة</t>
+  </si>
+  <si>
+    <t>الرستاق</t>
+  </si>
+  <si>
+    <t>العوابي</t>
+  </si>
+  <si>
+    <t>وادي المعاول</t>
+  </si>
+  <si>
+    <t>نخل</t>
+  </si>
+  <si>
+    <t>هيما</t>
+  </si>
+  <si>
+    <t>محوت</t>
+  </si>
+  <si>
+    <t>الدقم</t>
+  </si>
+  <si>
+    <t>الجازر</t>
+  </si>
+  <si>
+    <t>عبري</t>
+  </si>
+  <si>
+    <t>ضنك</t>
+  </si>
+  <si>
+    <t>ينقل</t>
+  </si>
+  <si>
+    <t>سمائل</t>
+  </si>
+  <si>
+    <t>بدبد</t>
+  </si>
+  <si>
+    <t>نزوى</t>
+  </si>
+  <si>
+    <t>الحمراء</t>
+  </si>
+  <si>
+    <t>بهلاء</t>
+  </si>
+  <si>
+    <t>منح</t>
+  </si>
+  <si>
+    <t>إزكي</t>
+  </si>
+  <si>
+    <t>أدم</t>
+  </si>
+  <si>
+    <t>الجبل الأخضر</t>
+  </si>
+  <si>
+    <t>البريمي</t>
+  </si>
+  <si>
+    <t>محضة</t>
+  </si>
+  <si>
+    <t>السنينة</t>
   </si>
 </sst>
 </file>
@@ -1137,6 +1326,7 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1149,12 +1339,13 @@
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Arial"/>
-      <charset val="178"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -1206,7 +1397,7 @@
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1235,6 +1426,9 @@
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1539,11 +1733,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F202"/>
+  <dimension ref="A1:F265"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A195" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D200" sqref="D200"/>
+      <pane ySplit="1" topLeftCell="A247" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H261" sqref="H261"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5087,6 +5281,693 @@
         <v>3045504</v>
       </c>
     </row>
+    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B203" s="3">
+        <v>34</v>
+      </c>
+      <c r="C203" t="s">
+        <v>364</v>
+      </c>
+      <c r="F203" s="10">
+        <v>3258</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B204" s="3">
+        <v>34</v>
+      </c>
+      <c r="C204" t="s">
+        <v>365</v>
+      </c>
+      <c r="F204" s="10">
+        <v>6991</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B205" s="3">
+        <v>34</v>
+      </c>
+      <c r="C205" t="s">
+        <v>366</v>
+      </c>
+      <c r="F205" s="10">
+        <v>18151</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B206" s="3">
+        <v>34</v>
+      </c>
+      <c r="C206" t="s">
+        <v>367</v>
+      </c>
+      <c r="F206" s="10">
+        <v>3025</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B207" s="12">
+        <v>33</v>
+      </c>
+      <c r="C207" t="s">
+        <v>368</v>
+      </c>
+      <c r="F207" s="10">
+        <v>27216</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B208" s="12">
+        <v>33</v>
+      </c>
+      <c r="C208" t="s">
+        <v>369</v>
+      </c>
+      <c r="F208" s="10">
+        <v>150124</v>
+      </c>
+    </row>
+    <row r="209" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B209" s="12">
+        <v>33</v>
+      </c>
+      <c r="C209" t="s">
+        <v>370</v>
+      </c>
+      <c r="F209" s="10">
+        <v>192235</v>
+      </c>
+    </row>
+    <row r="210" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B210" s="12">
+        <v>33</v>
+      </c>
+      <c r="C210" t="s">
+        <v>371</v>
+      </c>
+      <c r="F210" s="10">
+        <v>302992</v>
+      </c>
+    </row>
+    <row r="211" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B211" s="12">
+        <v>33</v>
+      </c>
+      <c r="C211" t="s">
+        <v>372</v>
+      </c>
+      <c r="F211" s="10">
+        <v>58400</v>
+      </c>
+    </row>
+    <row r="212" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B212" s="12">
+        <v>33</v>
+      </c>
+      <c r="C212" t="s">
+        <v>373</v>
+      </c>
+      <c r="F212" s="10">
+        <v>44911</v>
+      </c>
+    </row>
+    <row r="213" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B213" s="12">
+        <v>35</v>
+      </c>
+      <c r="C213" t="s">
+        <v>374</v>
+      </c>
+      <c r="F213" s="10">
+        <v>8697</v>
+      </c>
+    </row>
+    <row r="214" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B214" s="12">
+        <v>35</v>
+      </c>
+      <c r="C214" t="s">
+        <v>375</v>
+      </c>
+      <c r="F214" s="10">
+        <v>6384</v>
+      </c>
+    </row>
+    <row r="215" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B215" s="12">
+        <v>35</v>
+      </c>
+      <c r="C215" t="s">
+        <v>376</v>
+      </c>
+      <c r="F215" s="10">
+        <v>13919</v>
+      </c>
+    </row>
+    <row r="216" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B216" s="12">
+        <v>35</v>
+      </c>
+      <c r="C216" t="s">
+        <v>377</v>
+      </c>
+      <c r="F216" s="10">
+        <v>18218</v>
+      </c>
+    </row>
+    <row r="217" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B217" s="12">
+        <v>35</v>
+      </c>
+      <c r="C217" t="s">
+        <v>378</v>
+      </c>
+      <c r="F217" s="10">
+        <v>172570</v>
+      </c>
+    </row>
+    <row r="218" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B218" s="12">
+        <v>35</v>
+      </c>
+      <c r="C218" t="s">
+        <v>379</v>
+      </c>
+      <c r="F218" s="10">
+        <v>4501</v>
+      </c>
+    </row>
+    <row r="219" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B219" s="12">
+        <v>35</v>
+      </c>
+      <c r="C219" t="s">
+        <v>380</v>
+      </c>
+      <c r="F219" s="10">
+        <v>2809</v>
+      </c>
+    </row>
+    <row r="220" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B220" s="12">
+        <v>35</v>
+      </c>
+      <c r="C220" t="s">
+        <v>381</v>
+      </c>
+      <c r="F220" s="10">
+        <v>13523</v>
+      </c>
+    </row>
+    <row r="221" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B221" s="12">
+        <v>35</v>
+      </c>
+      <c r="C221" t="s">
+        <v>382</v>
+      </c>
+      <c r="F221" s="10">
+        <v>8039</v>
+      </c>
+    </row>
+    <row r="222" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B222" s="12">
+        <v>35</v>
+      </c>
+      <c r="C222" t="s">
+        <v>383</v>
+      </c>
+      <c r="F222" s="10">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="223" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B223" s="12">
+        <v>30</v>
+      </c>
+      <c r="C223" t="s">
+        <v>384</v>
+      </c>
+      <c r="F223" s="10">
+        <v>9468</v>
+      </c>
+    </row>
+    <row r="224" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B224" s="12">
+        <v>30</v>
+      </c>
+      <c r="C224" t="s">
+        <v>385</v>
+      </c>
+      <c r="F224" s="10">
+        <v>19442</v>
+      </c>
+    </row>
+    <row r="225" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B225" s="12">
+        <v>30</v>
+      </c>
+      <c r="C225" t="s">
+        <v>386</v>
+      </c>
+      <c r="F225" s="10">
+        <v>16033</v>
+      </c>
+    </row>
+    <row r="226" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B226" s="12">
+        <v>30</v>
+      </c>
+      <c r="C226" t="s">
+        <v>387</v>
+      </c>
+      <c r="F226" s="10">
+        <v>27216</v>
+      </c>
+    </row>
+    <row r="227" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B227" s="12">
+        <v>30</v>
+      </c>
+      <c r="C227" t="s">
+        <v>388</v>
+      </c>
+      <c r="F227" s="10">
+        <v>69377</v>
+      </c>
+    </row>
+    <row r="228" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B228" s="12">
+        <v>30</v>
+      </c>
+      <c r="C228" t="s">
+        <v>389</v>
+      </c>
+      <c r="F228" s="10">
+        <v>20946</v>
+      </c>
+    </row>
+    <row r="229" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B229" s="12">
+        <v>30</v>
+      </c>
+      <c r="C229" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="230" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B230" s="12">
+        <v>27</v>
+      </c>
+      <c r="C230" t="s">
+        <v>391</v>
+      </c>
+      <c r="F230" s="10">
+        <v>52294</v>
+      </c>
+    </row>
+    <row r="231" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B231" s="12">
+        <v>27</v>
+      </c>
+      <c r="C231" t="s">
+        <v>392</v>
+      </c>
+      <c r="F231" s="10">
+        <v>93438</v>
+      </c>
+    </row>
+    <row r="232" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B232" s="12">
+        <v>27</v>
+      </c>
+      <c r="C232" t="s">
+        <v>393</v>
+      </c>
+      <c r="F232" s="10">
+        <v>140006</v>
+      </c>
+    </row>
+    <row r="233" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B233" s="12">
+        <v>27</v>
+      </c>
+      <c r="C233" t="s">
+        <v>394</v>
+      </c>
+      <c r="F233" s="10">
+        <v>34001</v>
+      </c>
+    </row>
+    <row r="234" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B234" s="12">
+        <v>27</v>
+      </c>
+      <c r="C234" t="s">
+        <v>395</v>
+      </c>
+      <c r="F234" s="10">
+        <v>52132</v>
+      </c>
+    </row>
+    <row r="235" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B235" s="12">
+        <v>27</v>
+      </c>
+      <c r="C235" t="s">
+        <v>396</v>
+      </c>
+      <c r="F235" s="10">
+        <v>111711</v>
+      </c>
+    </row>
+    <row r="236" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B236" s="12">
+        <v>31</v>
+      </c>
+      <c r="C236" t="s">
+        <v>397</v>
+      </c>
+      <c r="F236" s="10">
+        <v>64988</v>
+      </c>
+    </row>
+    <row r="237" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B237" s="12">
+        <v>31</v>
+      </c>
+      <c r="C237" t="s">
+        <v>398</v>
+      </c>
+      <c r="F237" s="10">
+        <v>30146</v>
+      </c>
+    </row>
+    <row r="238" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B238" s="12">
+        <v>31</v>
+      </c>
+      <c r="C238" t="s">
+        <v>399</v>
+      </c>
+      <c r="F238" s="10">
+        <v>61356</v>
+      </c>
+    </row>
+    <row r="239" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B239" s="12">
+        <v>31</v>
+      </c>
+      <c r="C239" t="s">
+        <v>400</v>
+      </c>
+      <c r="F239" s="10">
+        <v>22816</v>
+      </c>
+    </row>
+    <row r="240" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B240" s="12">
+        <v>31</v>
+      </c>
+      <c r="C240" t="s">
+        <v>401</v>
+      </c>
+      <c r="F240" s="10">
+        <v>8726</v>
+      </c>
+    </row>
+    <row r="241" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B241" s="12">
+        <v>28</v>
+      </c>
+      <c r="C241" t="s">
+        <v>402</v>
+      </c>
+      <c r="F241" s="10">
+        <v>96407</v>
+      </c>
+    </row>
+    <row r="242" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B242" s="12">
+        <v>28</v>
+      </c>
+      <c r="C242" t="s">
+        <v>403</v>
+      </c>
+      <c r="F242" s="10">
+        <v>68571</v>
+      </c>
+    </row>
+    <row r="243" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B243" s="12">
+        <v>28</v>
+      </c>
+      <c r="C243" t="s">
+        <v>404</v>
+      </c>
+      <c r="F243" s="10">
+        <v>79720</v>
+      </c>
+    </row>
+    <row r="244" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B244" s="12">
+        <v>28</v>
+      </c>
+      <c r="C244" t="s">
+        <v>405</v>
+      </c>
+      <c r="F244" s="10">
+        <v>13326</v>
+      </c>
+    </row>
+    <row r="245" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B245" s="12">
+        <v>28</v>
+      </c>
+      <c r="C245" t="s">
+        <v>406</v>
+      </c>
+      <c r="F245" s="10">
+        <v>12866</v>
+      </c>
+    </row>
+    <row r="246" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B246" s="12">
+        <v>28</v>
+      </c>
+      <c r="C246" t="s">
+        <v>407</v>
+      </c>
+      <c r="F246" s="10">
+        <v>18118</v>
+      </c>
+    </row>
+    <row r="247" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B247" s="12">
+        <v>29</v>
+      </c>
+      <c r="C247" t="s">
+        <v>408</v>
+      </c>
+      <c r="F247" s="10">
+        <v>10473</v>
+      </c>
+    </row>
+    <row r="248" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B248" s="12">
+        <v>29</v>
+      </c>
+      <c r="C248" t="s">
+        <v>409</v>
+      </c>
+      <c r="F248" s="10">
+        <v>12488</v>
+      </c>
+    </row>
+    <row r="249" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B249" s="12">
+        <v>29</v>
+      </c>
+      <c r="C249" t="s">
+        <v>410</v>
+      </c>
+      <c r="F249" s="10">
+        <v>11217</v>
+      </c>
+    </row>
+    <row r="250" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B250" s="12">
+        <v>29</v>
+      </c>
+      <c r="C250" t="s">
+        <v>411</v>
+      </c>
+      <c r="F250" s="10">
+        <v>7933</v>
+      </c>
+    </row>
+    <row r="251" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B251" s="12">
+        <v>32</v>
+      </c>
+      <c r="C251" t="s">
+        <v>412</v>
+      </c>
+      <c r="F251" s="10">
+        <v>116416</v>
+      </c>
+    </row>
+    <row r="252" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B252" s="12">
+        <v>32</v>
+      </c>
+      <c r="C252" t="s">
+        <v>413</v>
+      </c>
+      <c r="F252" s="10">
+        <v>17191</v>
+      </c>
+    </row>
+    <row r="253" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B253" s="12">
+        <v>32</v>
+      </c>
+      <c r="C253" t="s">
+        <v>414</v>
+      </c>
+      <c r="F253" s="10">
+        <v>18057</v>
+      </c>
+    </row>
+    <row r="254" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B254" s="12">
+        <v>26</v>
+      </c>
+      <c r="C254" t="s">
+        <v>415</v>
+      </c>
+      <c r="F254" s="10">
+        <v>55896</v>
+      </c>
+    </row>
+    <row r="255" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B255" s="12">
+        <v>26</v>
+      </c>
+      <c r="C255" t="s">
+        <v>416</v>
+      </c>
+      <c r="F255" s="10">
+        <v>24705</v>
+      </c>
+    </row>
+    <row r="256" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B256" s="12">
+        <v>26</v>
+      </c>
+      <c r="C256" t="s">
+        <v>417</v>
+      </c>
+      <c r="F256" s="10">
+        <v>84528</v>
+      </c>
+    </row>
+    <row r="257" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B257" s="12">
+        <v>26</v>
+      </c>
+      <c r="C257" t="s">
+        <v>418</v>
+      </c>
+      <c r="F257" s="10">
+        <v>19509</v>
+      </c>
+    </row>
+    <row r="258" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B258" s="12">
+        <v>26</v>
+      </c>
+      <c r="C258" t="s">
+        <v>419</v>
+      </c>
+      <c r="F258" s="10">
+        <v>58234</v>
+      </c>
+    </row>
+    <row r="259" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B259" s="12">
+        <v>26</v>
+      </c>
+      <c r="C259" t="s">
+        <v>420</v>
+      </c>
+      <c r="F259" s="10">
+        <v>15056</v>
+      </c>
+    </row>
+    <row r="260" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B260" s="12">
+        <v>26</v>
+      </c>
+      <c r="C260" t="s">
+        <v>421</v>
+      </c>
+      <c r="F260" s="10">
+        <v>41402</v>
+      </c>
+    </row>
+    <row r="261" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B261" s="12">
+        <v>26</v>
+      </c>
+      <c r="C261" t="s">
+        <v>422</v>
+      </c>
+      <c r="F261" s="10">
+        <v>27321</v>
+      </c>
+    </row>
+    <row r="262" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B262" s="12">
+        <v>26</v>
+      </c>
+      <c r="C262" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="263" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B263" s="12">
+        <v>36</v>
+      </c>
+      <c r="C263" t="s">
+        <v>424</v>
+      </c>
+      <c r="F263">
+        <v>90.099000000000004</v>
+      </c>
+    </row>
+    <row r="264" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B264" s="12">
+        <v>36</v>
+      </c>
+      <c r="C264" t="s">
+        <v>425</v>
+      </c>
+      <c r="F264">
+        <v>11.930999999999999</v>
+      </c>
+    </row>
+    <row r="265" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B265" s="12">
+        <v>36</v>
+      </c>
+      <c r="C265" t="s">
+        <v>426</v>
+      </c>
+      <c r="F265">
+        <v>2.383</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:F1" xr:uid="{00000000-0009-0000-0000-000000000000}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E157">
